--- a/Assets/Table/ClickerGame.xlsx
+++ b/Assets/Table/ClickerGame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\새 폴더\Clicker1029\Assets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B2AF4-6C9B-4779-AADF-D33347B3632F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B3D67-425D-4376-ADE6-25DB4223B287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{13144A0B-F550-48C1-BE6A-3BB4E330B43D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13144A0B-F550-48C1-BE6A-3BB4E330B43D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Pentium Silver</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_PG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_I3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_i5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemIcon/itemicon_i7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,10 +141,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,11 +178,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -468,157 +503,183 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2001</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>3001</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>4001</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Assets/Table/ClickerGame.xlsx
+++ b/Assets/Table/ClickerGame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\새 폴더\Clicker1029\Assets\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub\Clicker1029\Assets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B3D67-425D-4376-ADE6-25DB4223B287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19486BD8-49BE-4BAB-BFAC-557ED701255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13144A0B-F550-48C1-BE6A-3BB4E330B43D}"/>
+    <workbookView xWindow="-25665" yWindow="2985" windowWidth="21600" windowHeight="11835" xr2:uid="{13144A0B-F550-48C1-BE6A-3BB4E330B43D}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Pentium Silver</t>
   </si>
@@ -96,27 +96,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemIcon/itemicon_PS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemIcon/itemicon_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/itemicon_PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/itemicon_I3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/itemicon_i5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemIcon/itemicon_i7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +125,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -178,14 +150,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -204,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +474,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,7 +516,7 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1">
@@ -565,8 +536,8 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
@@ -582,8 +553,8 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>10000</v>
@@ -599,8 +570,8 @@
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>100000</v>
@@ -616,8 +587,8 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1000000</v>
@@ -634,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -654,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -674,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
